--- a/ANALYSIS RESULTS/tabella finale.xlsx
+++ b/ANALYSIS RESULTS/tabella finale.xlsx
@@ -13,7 +13,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
   <si>
     <t>Stability_derivative</t>
   </si>
@@ -106,31 +241,31 @@
   <dimension ref="C2:H15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="true"/>
-    <col min="4" max="4" width="12.42578125" customWidth="true"/>
-    <col min="5" max="5" width="12.42578125" customWidth="true"/>
-    <col min="6" max="6" width="13.42578125" customWidth="true"/>
-    <col min="7" max="7" width="12.42578125" customWidth="true"/>
+    <col min="3" max="3" width="16.6015625" customWidth="true"/>
+    <col min="4" max="4" width="12.37890625" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13.37890625" customWidth="true"/>
+    <col min="7" max="7" width="12.37890625" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="C2" s="0" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="0" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -144,7 +279,7 @@
     </row>
     <row r="4">
       <c r="C4" s="0" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -158,7 +293,7 @@
     </row>
     <row r="5">
       <c r="C5" s="0" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -172,7 +307,7 @@
     </row>
     <row r="6">
       <c r="C6" s="0" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
@@ -186,36 +321,36 @@
     </row>
     <row r="9">
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0">
         <v>-0.16498460000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.089714550000000004</v>
+        <v>0.089714550000000004</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00081673279999999997</v>
+        <v>-0.00081673279999999997</v>
       </c>
       <c r="G10" s="0">
         <v>0.01468127</v>
@@ -226,16 +361,16 @@
     </row>
     <row r="11">
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D11" s="0">
         <v>-0.16498460000000001</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.089714550000000004</v>
+        <v>0.089714550000000004</v>
       </c>
       <c r="F11" s="0">
-        <v>0.00081673279999999997</v>
+        <v>-0.00081673279999999997</v>
       </c>
       <c r="G11" s="0">
         <v>0.01468127</v>
@@ -246,16 +381,16 @@
     </row>
     <row r="12">
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D12" s="0">
         <v>-0.005507596</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0034528110000000001</v>
+        <v>0.0034528110000000001</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.1232052</v>
+        <v>0.1232052</v>
       </c>
       <c r="G12" s="0">
         <v>-0.57988139999999999</v>
@@ -266,16 +401,16 @@
     </row>
     <row r="13">
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D13" s="0">
         <v>-0.005507596</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0034528110000000001</v>
+        <v>0.0034528110000000001</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.1232052</v>
+        <v>0.1232052</v>
       </c>
       <c r="G13" s="0">
         <v>-0.57988139999999999</v>
@@ -286,16 +421,16 @@
     </row>
     <row r="14">
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0">
         <v>0.079627089999999998</v>
       </c>
       <c r="E14" s="0">
-        <v>0.043928780000000001</v>
+        <v>-0.043928780000000001</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00039484040000000001</v>
+        <v>0.00039484040000000001</v>
       </c>
       <c r="G14" s="0">
         <v>-0.007080902</v>
@@ -306,16 +441,16 @@
     </row>
     <row r="15">
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D15" s="0">
         <v>0.079627089999999998</v>
       </c>
       <c r="E15" s="0">
-        <v>0.043928780000000001</v>
+        <v>-0.043928780000000001</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.00039484040000000001</v>
+        <v>0.00039484040000000001</v>
       </c>
       <c r="G15" s="0">
         <v>-0.007080902</v>

--- a/ANALYSIS RESULTS/tabella finale.xlsx
+++ b/ANALYSIS RESULTS/tabella finale.xlsx
@@ -13,7 +13,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
   <si>
     <t>Stability_derivative</t>
   </si>
@@ -242,221 +467,221 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16.6015625" customWidth="true"/>
-    <col min="4" max="4" width="12.37890625" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.37890625" customWidth="true"/>
-    <col min="7" max="7" width="12.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="6.93359375" customWidth="true"/>
+    <col min="6" max="6" width="7.26953125" customWidth="true"/>
+    <col min="7" max="7" width="2.15625" customWidth="true"/>
+    <col min="8" max="8" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>-5.173108</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.15485930000000001</v>
+        <v>-0.16524800000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>-6.2739839999999996</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>-5.173108</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.15485930000000001</v>
+        <v>-0.16524800000000001</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>-6.2739839999999996</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>-0.064583379999999996</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.7055439</v>
+        <v>-0.70181830000000001</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>-19.942260000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>-0.064583379999999996</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.7055439</v>
+        <v>-0.70181830000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>-19.942260000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.16498460000000001</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.089714550000000004</v>
+        <v>-0</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00081673279999999997</v>
+        <v>-0</v>
       </c>
       <c r="G10" s="0">
-        <v>0.01468127</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.1655874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.16498460000000001</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0.089714550000000004</v>
+        <v>-0</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.00081673279999999997</v>
+        <v>-0</v>
       </c>
       <c r="G11" s="0">
-        <v>0.01468127</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>0.1655874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="0" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.005507596</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0034528110000000001</v>
+        <v>-0</v>
       </c>
       <c r="F12" s="0">
-        <v>0.1232052</v>
+        <v>-0</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.57988139999999999</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0.0055470579999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.005507596</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0034528110000000001</v>
+        <v>-0</v>
       </c>
       <c r="F13" s="0">
-        <v>0.1232052</v>
+        <v>-0</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.57988139999999999</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0.0055470579999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D14" s="0">
-        <v>0.079627089999999998</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.043928780000000001</v>
+        <v>-0</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00039484040000000001</v>
+        <v>-0</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.007080902</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.079962110000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D15" s="0">
-        <v>0.079627089999999998</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.043928780000000001</v>
+        <v>-0</v>
       </c>
       <c r="F15" s="0">
-        <v>0.00039484040000000001</v>
+        <v>-0</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.007080902</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>-0.079962110000000003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
